--- a/Scripts BD/Datos Tablas BD.xlsx
+++ b/Scripts BD/Datos Tablas BD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Frameworks\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="3600" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="3600" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ZONAS" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="TIPOS_PARADEROS" sheetId="4" r:id="rId4"/>
     <sheet name="VIAS" sheetId="6" r:id="rId5"/>
     <sheet name="BUSES" sheetId="5" r:id="rId6"/>
+    <sheet name="BUSES_VIAS" sheetId="7" r:id="rId7"/>
+    <sheet name="RUTAS" sheetId="8" r:id="rId8"/>
+    <sheet name="VIAS_RUTAS" sheetId="9" r:id="rId9"/>
+    <sheet name="PARADEROS" sheetId="10" r:id="rId10"/>
+    <sheet name="RUTAS_PARADEROS" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="501">
   <si>
     <t>ID_ZONA</t>
   </si>
@@ -148,9 +153,6 @@
     <t>MODELO</t>
   </si>
   <si>
-    <t>CONDUTOR</t>
-  </si>
-  <si>
     <t>COLOR</t>
   </si>
   <si>
@@ -224,6 +226,1317 @@
   </si>
   <si>
     <t>NOMBRE_VIA</t>
+  </si>
+  <si>
+    <t>CONDUCTOR</t>
+  </si>
+  <si>
+    <t>Autopista Norte</t>
+  </si>
+  <si>
+    <t>Carrera 80</t>
+  </si>
+  <si>
+    <t>Calle 12</t>
+  </si>
+  <si>
+    <t>Avenida Boyacá</t>
+  </si>
+  <si>
+    <t>Avenida Carrera 68</t>
+  </si>
+  <si>
+    <t>Calle 13</t>
+  </si>
+  <si>
+    <t>Calle 72</t>
+  </si>
+  <si>
+    <t>Avenida Circunvalar</t>
+  </si>
+  <si>
+    <t>Avenida Ciudad de Cali</t>
+  </si>
+  <si>
+    <t>Calle 19</t>
+  </si>
+  <si>
+    <t>Avenida Ciudad de Villavicencio</t>
+  </si>
+  <si>
+    <t>Avenida de Las Américas</t>
+  </si>
+  <si>
+    <t>Avenida El Tintal</t>
+  </si>
+  <si>
+    <t>Avenida El Dorado</t>
+  </si>
+  <si>
+    <t>Avenida Fucha</t>
+  </si>
+  <si>
+    <t>Avenida Jiménez</t>
+  </si>
+  <si>
+    <t>Avenida Calle 63</t>
+  </si>
+  <si>
+    <t>Avenida La Conejera</t>
+  </si>
+  <si>
+    <t>Avenida La Esperanza</t>
+  </si>
+  <si>
+    <t>Avenida Las Torres</t>
+  </si>
+  <si>
+    <t>Carrera 58</t>
+  </si>
+  <si>
+    <t>Carrera 96</t>
+  </si>
+  <si>
+    <t>Avenida Manuel Cepeda Vargas</t>
+  </si>
+  <si>
+    <t>Avenida NQS</t>
+  </si>
+  <si>
+    <t>Avenida Pepe Sierra</t>
+  </si>
+  <si>
+    <t>Avenida Primero de Mayo</t>
+  </si>
+  <si>
+    <t>Avenida Quiroga</t>
+  </si>
+  <si>
+    <t>Avenida San Bernardino</t>
+  </si>
+  <si>
+    <t>Avenida Terreros</t>
+  </si>
+  <si>
+    <t>Avenida Bosa</t>
+  </si>
+  <si>
+    <t>Avenida Caracas</t>
+  </si>
+  <si>
+    <t>Avenida de Los Comuneros</t>
+  </si>
+  <si>
+    <t>Avenida Suba</t>
+  </si>
+  <si>
+    <t>Calle 34</t>
+  </si>
+  <si>
+    <t>Calle 53</t>
+  </si>
+  <si>
+    <t>Calle 100</t>
+  </si>
+  <si>
+    <t>Calle 127</t>
+  </si>
+  <si>
+    <t>Calle 134</t>
+  </si>
+  <si>
+    <t>Calle 170</t>
+  </si>
+  <si>
+    <t>Calle 183</t>
+  </si>
+  <si>
+    <t>Carrera 50</t>
+  </si>
+  <si>
+    <t>Park Way</t>
+  </si>
+  <si>
+    <t>Carrera 30</t>
+  </si>
+  <si>
+    <t>Calle 6</t>
+  </si>
+  <si>
+    <t>Calle 1</t>
+  </si>
+  <si>
+    <t>Calle 29 A</t>
+  </si>
+  <si>
+    <t>Calle 3</t>
+  </si>
+  <si>
+    <t>Carrera 95 A</t>
+  </si>
+  <si>
+    <t>Diagonal 89 Sur</t>
+  </si>
+  <si>
+    <t>Calle 8</t>
+  </si>
+  <si>
+    <t>ID_RUTA</t>
+  </si>
+  <si>
+    <t>NOMBRE_RUTA</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B50</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B55</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>B71</t>
+  </si>
+  <si>
+    <t>B72</t>
+  </si>
+  <si>
+    <t>B74</t>
+  </si>
+  <si>
+    <t>B75</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>C84</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>E44</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>G43</t>
+  </si>
+  <si>
+    <t>G44</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>G47</t>
+  </si>
+  <si>
+    <t>G52</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H27</t>
+  </si>
+  <si>
+    <t>H51</t>
+  </si>
+  <si>
+    <t>H54</t>
+  </si>
+  <si>
+    <t>H72</t>
+  </si>
+  <si>
+    <t>H73</t>
+  </si>
+  <si>
+    <t>H75</t>
+  </si>
+  <si>
+    <t>H83</t>
+  </si>
+  <si>
+    <t>J23</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>J70</t>
+  </si>
+  <si>
+    <t>J73</t>
+  </si>
+  <si>
+    <t>J74</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K16</t>
+  </si>
+  <si>
+    <t>K23</t>
+  </si>
+  <si>
+    <t>K42</t>
+  </si>
+  <si>
+    <t>K43</t>
+  </si>
+  <si>
+    <t>K54</t>
+  </si>
+  <si>
+    <t>K86</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L82</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>M51</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M82</t>
+  </si>
+  <si>
+    <t>M83</t>
+  </si>
+  <si>
+    <t>M84</t>
+  </si>
+  <si>
+    <t>M86</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>10-3C</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t>10-8</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>11-6</t>
+  </si>
+  <si>
+    <t>11-7</t>
+  </si>
+  <si>
+    <t>11-8</t>
+  </si>
+  <si>
+    <t>11-9</t>
+  </si>
+  <si>
+    <t>11-10</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <t>13-6</t>
+  </si>
+  <si>
+    <t>13-7</t>
+  </si>
+  <si>
+    <t>13-9</t>
+  </si>
+  <si>
+    <t>13-10</t>
+  </si>
+  <si>
+    <t>13-12</t>
+  </si>
+  <si>
+    <t>13-13</t>
+  </si>
+  <si>
+    <t>16-1</t>
+  </si>
+  <si>
+    <t>16-10</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>16-2</t>
+  </si>
+  <si>
+    <t>16-3</t>
+  </si>
+  <si>
+    <t>16-4</t>
+  </si>
+  <si>
+    <t>16-5</t>
+  </si>
+  <si>
+    <t>16-6</t>
+  </si>
+  <si>
+    <t>16-7</t>
+  </si>
+  <si>
+    <t>16-8</t>
+  </si>
+  <si>
+    <t>16-9</t>
+  </si>
+  <si>
+    <t>16-13</t>
+  </si>
+  <si>
+    <t>16-14</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-5C</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>9-9</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13-8</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107A</t>
+  </si>
+  <si>
+    <t>107B</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112A</t>
+  </si>
+  <si>
+    <t>112B</t>
+  </si>
+  <si>
+    <t>113B</t>
+  </si>
+  <si>
+    <t>114A</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19-1</t>
+  </si>
+  <si>
+    <t>19-3</t>
+  </si>
+  <si>
+    <t>19-4</t>
+  </si>
+  <si>
+    <t>19-8</t>
+  </si>
+  <si>
+    <t>19-9</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>193B</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201A</t>
+  </si>
+  <si>
+    <t>201B</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>13-2</t>
+  </si>
+  <si>
+    <t>13-4</t>
+  </si>
+  <si>
+    <t>13-5</t>
+  </si>
+  <si>
+    <t>14-1</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>14-4</t>
+  </si>
+  <si>
+    <t>15-3</t>
+  </si>
+  <si>
+    <t>15-4</t>
+  </si>
+  <si>
+    <t>15-5</t>
+  </si>
+  <si>
+    <t>16-12</t>
+  </si>
+  <si>
+    <t>17-1</t>
+  </si>
+  <si>
+    <t>17-2</t>
+  </si>
+  <si>
+    <t>17-3</t>
+  </si>
+  <si>
+    <t>17-7</t>
+  </si>
+  <si>
+    <t>18-2</t>
+  </si>
+  <si>
+    <t>18-3</t>
+  </si>
+  <si>
+    <t>19-2</t>
+  </si>
+  <si>
+    <t>19-10</t>
+  </si>
+  <si>
+    <t>19-11</t>
+  </si>
+  <si>
+    <t>19-12</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>19-6</t>
+  </si>
+  <si>
+    <t>19-7</t>
+  </si>
+  <si>
+    <t>6-18</t>
+  </si>
+  <si>
+    <t>10-10</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>14-6</t>
+  </si>
+  <si>
+    <t>18-6</t>
+  </si>
+  <si>
+    <t>18-7</t>
+  </si>
+  <si>
+    <t>18-8</t>
+  </si>
+  <si>
+    <t>18-9</t>
+  </si>
+  <si>
+    <t>18-11</t>
+  </si>
+  <si>
+    <t>18-13</t>
+  </si>
+  <si>
+    <t>18-14</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>Carrera 3</t>
+  </si>
+  <si>
+    <t>Carrera 5 A</t>
+  </si>
+  <si>
+    <t>Avenida Carrera 10</t>
+  </si>
+  <si>
+    <t>Carrera 7</t>
+  </si>
+  <si>
+    <t>Calle 50 A Sur</t>
+  </si>
+  <si>
+    <t>Calle 51 Sur</t>
+  </si>
+  <si>
+    <t>Avenida Carrera 15</t>
+  </si>
+  <si>
+    <t>ID_PARADERO</t>
+  </si>
+  <si>
+    <t>NOMBRE_PARADERO</t>
+  </si>
+  <si>
+    <t>UBICACION_PARADERO</t>
+  </si>
+  <si>
+    <t>POSICION_VIA</t>
+  </si>
+  <si>
+    <t>Portal El Dorado</t>
+  </si>
+  <si>
+    <t>Portal de Las Américas</t>
+  </si>
+  <si>
+    <t>Portal del Norte</t>
+  </si>
+  <si>
+    <t>Portal 20 de Julio</t>
+  </si>
+  <si>
+    <t>Portal de la 80</t>
+  </si>
+  <si>
+    <t>Portal de Suba</t>
+  </si>
+  <si>
+    <t>Portal del Sur</t>
+  </si>
+  <si>
+    <t>Portal del Tunal</t>
+  </si>
+  <si>
+    <t>Portal de Usme</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>Avenida Carrera 86</t>
+  </si>
+  <si>
+    <t>Avenida Calle 57 R Sur</t>
+  </si>
+  <si>
+    <t>Avenida Carrera 14</t>
+  </si>
+  <si>
+    <t>Héroes</t>
+  </si>
+  <si>
+    <t>Calle 85</t>
+  </si>
+  <si>
+    <t>Virrey</t>
+  </si>
+  <si>
+    <t>Calle 106</t>
+  </si>
+  <si>
+    <t>Pepe Sierra</t>
+  </si>
+  <si>
+    <t>Prado</t>
+  </si>
+  <si>
+    <t>Alcalá</t>
+  </si>
+  <si>
+    <t>Calle 142</t>
+  </si>
+  <si>
+    <t>Calle 146</t>
+  </si>
+  <si>
+    <t>Mazurén</t>
+  </si>
+  <si>
+    <t>Calle 161</t>
+  </si>
+  <si>
+    <t>Toberín</t>
+  </si>
+  <si>
+    <t>Calle 187</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>(X =600313,7674;Y = 513171,4289)</t>
+  </si>
+  <si>
+    <t>(X =600114,7723;Y = 513659,0555)</t>
+  </si>
+  <si>
+    <t>(X =600380,4171;Y = 514008,3131)</t>
+  </si>
+  <si>
+    <t>(X =600701,8847;Y = 514132,8192)</t>
+  </si>
+  <si>
+    <t>(X =601017,0637;Y = 513914,591)</t>
+  </si>
+  <si>
+    <t>(X =601274,6636;Y = 513733,1767)</t>
+  </si>
+  <si>
+    <t>(X =601265,8874;Y = 513528,461)</t>
+  </si>
+  <si>
+    <t>(X =601011,7946;Y = 513297,2653)</t>
+  </si>
+  <si>
+    <t>(X =600785,7845;Y = 513151,6182)</t>
+  </si>
+  <si>
+    <t>(X =591046,5748;Y = 513752,8642)</t>
+  </si>
+  <si>
+    <t>(X =591100,8305;Y = 513651,625)</t>
+  </si>
+  <si>
+    <t>(X =591208,3227;Y = 513454,1993)</t>
+  </si>
+  <si>
+    <t>(X =591351,0002;Y = 513301,4025)</t>
+  </si>
+  <si>
+    <t>(X =591613,6859;Y = 513048,0911)</t>
+  </si>
+  <si>
+    <t>(X =591752,9454;Y = 512958,0273)</t>
+  </si>
+  <si>
+    <t>(X =591893,563;Y = 513066,5112)</t>
+  </si>
+  <si>
+    <t>(X =592122,136;Y = 513194,633)</t>
+  </si>
+  <si>
+    <t>(X =592359,55;Y = 512945,5645)</t>
+  </si>
+  <si>
+    <t>(X =592617,4275;Y = 512603,4422)</t>
+  </si>
+  <si>
+    <t>(X =592792,4438;Y = 512372,693)</t>
+  </si>
+  <si>
+    <t>(X =592929,8933;Y = 512382,8302)</t>
+  </si>
+  <si>
+    <t>(X =593337,2152;Y = 512755,825)</t>
+  </si>
+  <si>
+    <t>(X =593677,1353;Y = 512738,1504)</t>
+  </si>
+  <si>
+    <t>(X =593811,9292;Y = 512398,6841)</t>
+  </si>
+  <si>
+    <t>(X =593664,3875;Y = 512190,27)</t>
+  </si>
+  <si>
+    <t>(X =593898,1984;Y = 511866,9521)</t>
+  </si>
+  <si>
+    <t>(X =594226,4659;Y = 511574,0565)</t>
+  </si>
+  <si>
+    <t>(X =594401,1239;Y = 511416,7878)</t>
+  </si>
+  <si>
+    <t>(X =594710,8644;Y = 511126,9481)</t>
+  </si>
+  <si>
+    <t>(X =594825,3877;Y = 511029,1206)</t>
+  </si>
+  <si>
+    <t>(X =595000,3495;Y = 510863,2351)</t>
+  </si>
+  <si>
+    <t>(X =595079,6657;Y = 510600,8278)</t>
+  </si>
+  <si>
+    <t>(X =595704,7946;Y = 510265,2403)</t>
+  </si>
+  <si>
+    <t>(X =596218,1637;Y = 509757,037)</t>
+  </si>
+  <si>
+    <t>(X =596857,7246;Y = 509245,6354)</t>
+  </si>
+  <si>
+    <t>(X =597061,9415;Y = 509033,693)</t>
+  </si>
+  <si>
+    <t>(X =597257,4761;Y = 508892,1027)</t>
+  </si>
+  <si>
+    <t>(X =597632,5569;Y = 508677,8609)</t>
+  </si>
+  <si>
+    <t>POSICION_RUTA</t>
+  </si>
+  <si>
+    <t>Modelia</t>
+  </si>
+  <si>
+    <t>Normandia</t>
+  </si>
+  <si>
+    <t>AV Rojas</t>
+  </si>
+  <si>
+    <t>El Tiempo - Maloka</t>
+  </si>
+  <si>
+    <t>Salitre - El Greco</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Gobernación</t>
+  </si>
+  <si>
+    <t>Quinta Paredes</t>
+  </si>
+  <si>
+    <t>Corferias</t>
+  </si>
+  <si>
+    <t>Ciudad Universitaria</t>
+  </si>
+  <si>
+    <t>Concejo Bogotá</t>
+  </si>
+  <si>
+    <t>Centro Memoria</t>
+  </si>
+  <si>
+    <t>Universidades</t>
   </si>
 </sst>
 </file>
@@ -259,8 +1572,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,6 +1991,1025 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" t="s">
+        <v>462</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" t="s">
+        <v>466</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" t="s">
+        <v>468</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" t="s">
+        <v>469</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>445</v>
+      </c>
+      <c r="E24" t="s">
+        <v>470</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" t="s">
+        <v>472</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" t="s">
+        <v>473</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>488</v>
+      </c>
+      <c r="E28" t="s">
+        <v>474</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ref="A29:A40" si="0">A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" t="s">
+        <v>475</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>490</v>
+      </c>
+      <c r="E30" t="s">
+        <v>476</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>491</v>
+      </c>
+      <c r="E31" t="s">
+        <v>477</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>492</v>
+      </c>
+      <c r="E32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E33" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>494</v>
+      </c>
+      <c r="E34" t="s">
+        <v>480</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>495</v>
+      </c>
+      <c r="E35" t="s">
+        <v>481</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>496</v>
+      </c>
+      <c r="E36" t="s">
+        <v>482</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>497</v>
+      </c>
+      <c r="E37" t="s">
+        <v>483</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>498</v>
+      </c>
+      <c r="E38" t="s">
+        <v>484</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>499</v>
+      </c>
+      <c r="E39" t="s">
+        <v>485</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>500</v>
+      </c>
+      <c r="E40" t="s">
+        <v>486</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
@@ -881,30 +3214,524 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -913,7 +3740,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,10 +3765,10 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,16 +3779,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>2015</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,16 +3799,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,16 +3819,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>2014</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,16 +3839,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,16 +3859,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,16 +3879,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,16 +3899,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,16 +3919,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,16 +3939,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>2015</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,16 +3959,4762 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D304"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A76" si="0">A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
         <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" ref="A77:A140" si="1">A76+1</f>
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" ref="A141:A204" si="2">A140+1</f>
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>9</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>9</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>9</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>9</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>9</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>9</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>9</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" ref="A205:A268" si="3">A204+1</f>
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>9</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>9</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>5</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>6</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>6</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>6</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>6</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>6</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>6</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>6</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>6</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="3"/>
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="3"/>
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>6</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f t="shared" si="3"/>
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f t="shared" si="3"/>
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f t="shared" ref="A269:A304" si="4">A268+1</f>
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7</v>
+      </c>
+      <c r="C269">
+        <v>4</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7</v>
+      </c>
+      <c r="C271">
+        <v>4</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7</v>
+      </c>
+      <c r="C272">
+        <v>4</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7</v>
+      </c>
+      <c r="C279">
+        <v>4</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <v>4</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7</v>
+      </c>
+      <c r="C283">
+        <v>4</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7</v>
+      </c>
+      <c r="C284">
+        <v>4</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7</v>
+      </c>
+      <c r="C286">
+        <v>4</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7</v>
+      </c>
+      <c r="C287">
+        <v>4</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <v>4</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7</v>
+      </c>
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>5</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+      <c r="C302">
+        <v>5</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts BD/Datos Tablas BD.xlsx
+++ b/Scripts BD/Datos Tablas BD.xlsx
@@ -5,26 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Frameworks\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\TRANSMILENIO\Scripts BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="3600" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="3600" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="ZONAS" sheetId="1" r:id="rId1"/>
-    <sheet name="TIPOS_BUSES" sheetId="2" r:id="rId2"/>
-    <sheet name="TIPOS_RUTAS" sheetId="3" r:id="rId3"/>
-    <sheet name="TIPOS_PARADEROS" sheetId="4" r:id="rId4"/>
-    <sheet name="VIAS" sheetId="6" r:id="rId5"/>
-    <sheet name="BUSES" sheetId="5" r:id="rId6"/>
-    <sheet name="BUSES_VIAS" sheetId="7" r:id="rId7"/>
-    <sheet name="RUTAS" sheetId="8" r:id="rId8"/>
-    <sheet name="VIAS_RUTAS" sheetId="9" r:id="rId9"/>
-    <sheet name="PARADEROS" sheetId="10" r:id="rId10"/>
-    <sheet name="RUTAS_PARADEROS" sheetId="11" r:id="rId11"/>
+    <sheet name="TIPOS_BUSES" sheetId="2" r:id="rId1"/>
+    <sheet name="TIPOS_RUTAS" sheetId="3" r:id="rId2"/>
+    <sheet name="TIPOS_PARADEROS" sheetId="4" r:id="rId3"/>
+    <sheet name="VIAS" sheetId="6" r:id="rId4"/>
+    <sheet name="BUSES" sheetId="5" r:id="rId5"/>
+    <sheet name="BUSES_VIAS" sheetId="7" r:id="rId6"/>
+    <sheet name="RUTAS" sheetId="8" r:id="rId7"/>
+    <sheet name="VIAS_RUTAS" sheetId="9" r:id="rId8"/>
+    <sheet name="PARADEROS" sheetId="10" r:id="rId9"/>
+    <sheet name="RUTAS_PARADEROS" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,56 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="501">
-  <si>
-    <t>ID_ZONA</t>
-  </si>
-  <si>
-    <t>NOMBRE_ZONA</t>
-  </si>
-  <si>
-    <t>Usaquen</t>
-  </si>
-  <si>
-    <t>Suba Oriental</t>
-  </si>
-  <si>
-    <t>Suba Centro</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="486">
   <si>
     <t>Calle 80</t>
   </si>
   <si>
-    <t>Engativa</t>
-  </si>
-  <si>
-    <t>Fontibon</t>
-  </si>
-  <si>
-    <t>Tintal- Zona Franca</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>Bosa</t>
-  </si>
-  <si>
-    <t>Perdomo</t>
-  </si>
-  <si>
-    <t>Ciudad Bolivar</t>
-  </si>
-  <si>
-    <t>Usme</t>
-  </si>
-  <si>
-    <t>San Cristobal</t>
-  </si>
-  <si>
-    <t>Zona Neutra</t>
-  </si>
-  <si>
     <t>ID_TIPO_BUS</t>
   </si>
   <si>
@@ -228,9 +182,6 @@
     <t>NOMBRE_VIA</t>
   </si>
   <si>
-    <t>CONDUCTOR</t>
-  </si>
-  <si>
     <t>Autopista Norte</t>
   </si>
   <si>
@@ -1537,12 +1488,15 @@
   </si>
   <si>
     <t>Universidades</t>
+  </si>
+  <si>
+    <t>CONDUTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1855,1163 +1809,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>425</v>
-      </c>
-      <c r="E5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" t="s">
-        <v>455</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>429</v>
-      </c>
-      <c r="E9" t="s">
-        <v>456</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>430</v>
-      </c>
-      <c r="E10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>431</v>
-      </c>
-      <c r="E11" t="s">
-        <v>449</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" t="s">
-        <v>458</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" t="s">
-        <v>459</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>437</v>
-      </c>
-      <c r="E14" t="s">
-        <v>460</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>461</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E16" t="s">
-        <v>462</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E17" t="s">
-        <v>463</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" t="s">
-        <v>465</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E20" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" t="s">
-        <v>467</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>443</v>
-      </c>
-      <c r="E22" t="s">
-        <v>468</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" t="s">
-        <v>469</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>445</v>
-      </c>
-      <c r="E24" t="s">
-        <v>470</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>446</v>
-      </c>
-      <c r="E25" t="s">
-        <v>471</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>447</v>
-      </c>
-      <c r="E26" t="s">
-        <v>472</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>448</v>
-      </c>
-      <c r="E27" t="s">
-        <v>473</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>A27+1</f>
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>488</v>
-      </c>
-      <c r="E28" t="s">
-        <v>474</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" ref="A29:A40" si="0">A28+1</f>
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>489</v>
-      </c>
-      <c r="E29" t="s">
-        <v>475</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>490</v>
-      </c>
-      <c r="E30" t="s">
-        <v>476</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>491</v>
-      </c>
-      <c r="E31" t="s">
-        <v>477</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>492</v>
-      </c>
-      <c r="E32" t="s">
-        <v>478</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33" t="s">
-        <v>479</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>494</v>
-      </c>
-      <c r="E34" t="s">
-        <v>480</v>
-      </c>
-      <c r="F34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>495</v>
-      </c>
-      <c r="E35" t="s">
-        <v>481</v>
-      </c>
-      <c r="F35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>496</v>
-      </c>
-      <c r="E36" t="s">
-        <v>482</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>497</v>
-      </c>
-      <c r="E37" t="s">
-        <v>483</v>
-      </c>
-      <c r="F37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>498</v>
-      </c>
-      <c r="E38" t="s">
-        <v>484</v>
-      </c>
-      <c r="F38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>499</v>
-      </c>
-      <c r="E39" t="s">
-        <v>485</v>
-      </c>
-      <c r="F39">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>500</v>
-      </c>
-      <c r="E40" t="s">
-        <v>486</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3026,10 +1823,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +1891,191 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3110,10 +2091,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +2134,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3161,7 +2142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3177,10 +2158,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3212,12 +2193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,10 +2208,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3262,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3270,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3278,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3286,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3310,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +2307,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3342,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3350,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3358,7 +2339,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +2347,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,7 +2363,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3390,7 +2371,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3398,7 +2379,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +2387,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +2395,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +2403,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3430,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +2419,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +2435,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +2443,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +2459,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +2467,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +2475,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,7 +2483,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +2491,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +2499,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3542,7 +2523,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3550,7 +2531,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3558,7 +2539,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3566,7 +2547,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,7 +2555,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3582,7 +2563,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +2571,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3598,7 +2579,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,7 +2587,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3614,7 +2595,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3622,7 +2603,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3630,7 +2611,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3638,7 +2619,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3646,7 +2627,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +2635,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,7 +2643,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3670,7 +2651,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,7 +2659,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +2667,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3694,7 +2675,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3702,7 +2683,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +2691,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,7 +2699,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +2707,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3735,12 +2716,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,22 +2734,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>485</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3779,16 +2760,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>2015</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,16 +2780,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,16 +2800,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>2014</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,16 +2820,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,16 +2840,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,16 +2860,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,16 +2880,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,16 +2900,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,16 +2920,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>2015</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,16 +2940,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3976,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3992,10 +2973,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4059,7 +3040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D304"/>
   <sheetViews>
@@ -4075,16 +3056,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4254,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4269,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4344,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4359,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4374,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4404,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4434,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4569,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4584,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4644,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4689,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4749,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4764,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4854,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4914,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4974,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5004,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5034,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5064,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -5094,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5184,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -5214,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5244,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5274,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5289,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5394,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5409,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5454,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5544,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5604,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,7 +4600,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5664,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5679,7 +4660,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5724,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,7 +4735,7 @@
         <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5814,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5874,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5889,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5904,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5934,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,7 +4975,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -6009,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6024,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,7 +5050,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -6084,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -6099,7 +5080,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -6114,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,7 +5125,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -6174,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -6249,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,7 +5275,7 @@
         <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -6309,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -6339,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,7 +5335,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -6369,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -6384,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,7 +5380,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -6429,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,7 +5470,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -6504,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -6519,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -6534,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -6549,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -6579,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -6594,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,7 +5620,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -6654,7 +5635,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -6699,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,7 +5710,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -6744,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -6759,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6819,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,7 +5830,7 @@
         <v>2</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -6864,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6879,7 +5860,7 @@
         <v>2</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6909,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6924,7 +5905,7 @@
         <v>2</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6969,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -7014,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -7029,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -7074,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -7089,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -7149,7 +6130,7 @@
         <v>2</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,7 +6145,7 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -7179,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,7 +6205,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -7239,7 +6220,7 @@
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,7 +6250,7 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -7299,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -7314,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -7329,7 +6310,7 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -7344,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -7359,7 +6340,7 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -7374,7 +6355,7 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -7389,7 +6370,7 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,7 +6385,7 @@
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -7419,7 +6400,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -7434,7 +6415,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -7449,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,7 +6460,7 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -7494,7 +6475,7 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7509,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7524,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,7 +6520,7 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,7 +6535,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7569,7 +6550,7 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,7 +6565,7 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7599,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,7 +6595,7 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7659,7 +6640,7 @@
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7674,7 +6655,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,7 +6670,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7704,7 +6685,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -7719,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -7734,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,7 +6730,7 @@
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7764,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7794,7 +6775,7 @@
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -7809,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -7839,7 +6820,7 @@
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -7854,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -7869,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -7884,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7899,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -7914,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -7929,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,7 +6925,7 @@
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -7959,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -7974,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -7989,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -8004,7 +6985,7 @@
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -8019,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -8034,7 +7015,7 @@
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -8049,7 +7030,7 @@
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -8064,7 +7045,7 @@
         <v>4</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -8079,7 +7060,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -8094,7 +7075,7 @@
         <v>4</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -8124,7 +7105,7 @@
         <v>4</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -8139,7 +7120,7 @@
         <v>4</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -8154,7 +7135,7 @@
         <v>4</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -8169,7 +7150,7 @@
         <v>4</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -8184,7 +7165,7 @@
         <v>4</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -8199,7 +7180,7 @@
         <v>4</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -8214,7 +7195,7 @@
         <v>4</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -8229,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -8244,7 +7225,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -8259,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -8274,7 +7255,7 @@
         <v>4</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -8289,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -8304,7 +7285,7 @@
         <v>4</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -8334,7 +7315,7 @@
         <v>4</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -8349,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -8364,7 +7345,7 @@
         <v>4</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -8379,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -8394,7 +7375,7 @@
         <v>4</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -8409,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -8424,7 +7405,7 @@
         <v>4</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8439,7 +7420,7 @@
         <v>5</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -8454,7 +7435,7 @@
         <v>5</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -8469,7 +7450,7 @@
         <v>5</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -8484,7 +7465,7 @@
         <v>5</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -8499,7 +7480,7 @@
         <v>5</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -8514,7 +7495,7 @@
         <v>5</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -8529,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -8544,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -8559,7 +7540,7 @@
         <v>5</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -8574,7 +7555,7 @@
         <v>5</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -8589,7 +7570,7 @@
         <v>5</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -8604,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -8619,7 +7600,7 @@
         <v>5</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -8627,7 +7608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -8639,10 +7620,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8715,6 +7696,841 @@
       </c>
       <c r="B10">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>448</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" t="s">
+        <v>449</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E21" t="s">
+        <v>451</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E23" t="s">
+        <v>453</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>432</v>
+      </c>
+      <c r="E27" t="s">
+        <v>457</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ref="A29:A40" si="0">A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" t="s">
+        <v>459</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" t="s">
+        <v>460</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>475</v>
+      </c>
+      <c r="E31" t="s">
+        <v>461</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" t="s">
+        <v>462</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" t="s">
+        <v>463</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>478</v>
+      </c>
+      <c r="E34" t="s">
+        <v>464</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>479</v>
+      </c>
+      <c r="E35" t="s">
+        <v>465</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>480</v>
+      </c>
+      <c r="E36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>481</v>
+      </c>
+      <c r="E37" t="s">
+        <v>467</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>482</v>
+      </c>
+      <c r="E38" t="s">
+        <v>468</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>483</v>
+      </c>
+      <c r="E39" t="s">
+        <v>469</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>484</v>
+      </c>
+      <c r="E40" t="s">
+        <v>470</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
